--- a/Attendance/12-04-2020.xlsx
+++ b/Attendance/12-04-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,176 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ABDULLAH</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>17BCS002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>19:47:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ABDULLAH</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>17BCS002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>19:52:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ABDULLAH</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>17BCS002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20:42:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ABDULLAH</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>17BCS002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ASAD</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>17BCS048</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20:53:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ABDULLAH</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>17BCS002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20:54:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ASAD</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>17BCS048</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20:55:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ABDULLAH</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>17BCS002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20:57:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ABDULLAH</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>17BCS002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>22:56:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ABDULLAH</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>17BCS002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>22:57:22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
